--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/EMERGENCENetworkVisualisation/NetworkVisualisationData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD385A28-A769-428D-A2F0-8B7DD711B7E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="689">
   <si>
     <t>ID</t>
   </si>
@@ -2129,11 +2129,17 @@
   <si>
     <t>Manchester</t>
   </si>
+  <si>
+    <t>Maximus Hughes-Gray</t>
+  </si>
+  <si>
+    <t>Fake</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
@@ -2255,7 +2261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2287,11 +2293,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2607,11 +2609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="F112" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2713,7 +2715,7 @@
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" t="s">
         <v>656</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -2861,7 +2863,7 @@
       <c r="G5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="6" t="s">
         <v>674</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3023,7 +3025,7 @@
       <c r="G8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="6" t="s">
         <v>672</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -3126,7 +3128,7 @@
       <c r="G10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="14" t="s">
         <v>681</v>
       </c>
       <c r="I10" s="14" t="s">
@@ -3176,7 +3178,7 @@
       <c r="G11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="14" t="s">
         <v>668</v>
       </c>
       <c r="I11" s="14" t="s">
@@ -3229,7 +3231,7 @@
       <c r="G12" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" t="s">
         <v>671</v>
       </c>
       <c r="I12" t="s">
@@ -3337,7 +3339,7 @@
       <c r="G14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="6" t="s">
         <v>667</v>
       </c>
       <c r="I14" s="6" t="s">
@@ -3391,7 +3393,7 @@
       <c r="G15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="6" t="s">
         <v>667</v>
       </c>
       <c r="I15" s="18" t="s">
@@ -3495,7 +3497,7 @@
       <c r="G17" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="6" t="s">
         <v>679</v>
       </c>
       <c r="I17" s="18" t="s">
@@ -3549,7 +3551,7 @@
       <c r="G18" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="32" t="s">
         <v>679</v>
       </c>
       <c r="I18" s="22" t="s">
@@ -3603,7 +3605,7 @@
       <c r="G19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="6" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -3653,7 +3655,7 @@
       <c r="G20" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="6" t="s">
         <v>673</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -3703,7 +3705,7 @@
       <c r="G21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="6" t="s">
         <v>675</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -3757,7 +3759,7 @@
       <c r="G22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="6" t="s">
         <v>682</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -3807,7 +3809,7 @@
       <c r="G23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" t="s">
         <v>672</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -3857,7 +3859,7 @@
       <c r="G24" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="6" t="s">
         <v>673</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -3907,7 +3909,7 @@
       <c r="G25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="6" t="s">
         <v>676</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -4011,7 +4013,7 @@
       <c r="G27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="14" t="s">
         <v>672</v>
       </c>
       <c r="I27" s="14" t="s">
@@ -4060,7 +4062,7 @@
       <c r="G28" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" t="s">
         <v>671</v>
       </c>
       <c r="I28" t="s">
@@ -4114,7 +4116,7 @@
       <c r="G29" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="6" t="s">
         <v>679</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -4164,7 +4166,7 @@
       <c r="G30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="6" t="s">
         <v>672</v>
       </c>
       <c r="I30" s="6" t="s">
@@ -4322,7 +4324,7 @@
       <c r="G33" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="6" t="s">
         <v>671</v>
       </c>
       <c r="I33" s="6" t="s">
@@ -4422,7 +4424,7 @@
       <c r="G35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="6" t="s">
         <v>669</v>
       </c>
       <c r="I35" s="6" t="s">
@@ -4472,7 +4474,7 @@
       <c r="G36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="6" t="s">
         <v>667</v>
       </c>
       <c r="I36" s="6" t="s">
@@ -4576,7 +4578,7 @@
       <c r="G38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="6" t="s">
         <v>673</v>
       </c>
       <c r="I38" s="6" t="s">
@@ -4626,7 +4628,7 @@
       <c r="G39" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="6" t="s">
         <v>683</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -4680,7 +4682,7 @@
       <c r="G40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="6" t="s">
         <v>671</v>
       </c>
       <c r="I40" s="6" t="s">
@@ -4780,7 +4782,7 @@
       <c r="G42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="6" t="s">
         <v>671</v>
       </c>
       <c r="I42" s="6" t="s">
@@ -4884,7 +4886,7 @@
       <c r="G44" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="14" t="s">
         <v>672</v>
       </c>
       <c r="I44" s="14" t="s">
@@ -4938,7 +4940,7 @@
       <c r="G45" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="6" t="s">
         <v>679</v>
       </c>
       <c r="I45" s="6" t="s">
@@ -5041,13 +5043,13 @@
       <c r="G47" t="s">
         <v>284</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" t="s">
         <v>678</v>
       </c>
       <c r="I47" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" t="s">
         <v>659</v>
       </c>
       <c r="K47" t="s">
@@ -5151,7 +5153,7 @@
       <c r="I49" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J49" s="34" t="s">
+      <c r="J49" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K49" s="11" t="s">
@@ -5298,7 +5300,7 @@
       <c r="G52" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="6" t="s">
         <v>673</v>
       </c>
       <c r="I52" s="6" t="s">
@@ -5351,13 +5353,13 @@
       <c r="G53" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" t="s">
         <v>679</v>
       </c>
       <c r="I53" t="s">
         <v>320</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="14" t="s">
         <v>659</v>
       </c>
       <c r="K53" t="s">
@@ -5458,13 +5460,13 @@
       <c r="G55" t="s">
         <v>156</v>
       </c>
-      <c r="H55" s="34" t="s">
+      <c r="H55" s="14" t="s">
         <v>672</v>
       </c>
       <c r="I55" t="s">
         <v>330</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="J55" s="14" t="s">
         <v>659</v>
       </c>
       <c r="K55" t="s">
@@ -5511,13 +5513,13 @@
       <c r="G56" t="s">
         <v>336</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" t="s">
         <v>679</v>
       </c>
       <c r="I56" t="s">
         <v>337</v>
       </c>
-      <c r="J56" s="34" t="s">
+      <c r="J56" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K56" t="s">
@@ -5564,13 +5566,13 @@
       <c r="G57" t="s">
         <v>145</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="H57" t="s">
         <v>675</v>
       </c>
       <c r="I57" t="s">
         <v>343</v>
       </c>
-      <c r="J57" s="34" t="s">
+      <c r="J57" s="14" t="s">
         <v>656</v>
       </c>
       <c r="K57" t="s">
@@ -5617,13 +5619,13 @@
       <c r="G58" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" t="s">
         <v>671</v>
       </c>
       <c r="I58" t="s">
         <v>348</v>
       </c>
-      <c r="J58" s="34" t="s">
+      <c r="J58" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K58" t="s">
@@ -5670,13 +5672,13 @@
       <c r="G59" t="s">
         <v>156</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" t="s">
         <v>672</v>
       </c>
       <c r="I59" t="s">
         <v>353</v>
       </c>
-      <c r="J59" s="34" t="s">
+      <c r="J59" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K59" t="s">
@@ -5717,13 +5719,13 @@
       <c r="G60" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="H60" t="s">
         <v>672</v>
       </c>
       <c r="I60" t="s">
         <v>359</v>
       </c>
-      <c r="J60" s="34" t="s">
+      <c r="J60" s="14" t="s">
         <v>659</v>
       </c>
       <c r="K60" t="s">
@@ -5770,13 +5772,13 @@
       <c r="G61" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H61" t="s">
         <v>667</v>
       </c>
       <c r="I61" t="s">
         <v>343</v>
       </c>
-      <c r="J61" s="34" t="s">
+      <c r="J61" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K61" t="s">
@@ -5824,7 +5826,7 @@
       <c r="G62" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H62" s="35" t="s">
+      <c r="H62" s="6" t="s">
         <v>675</v>
       </c>
       <c r="I62" s="6" t="s">
@@ -5878,7 +5880,7 @@
       <c r="G63" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H63" s="35" t="s">
+      <c r="H63" s="6" t="s">
         <v>679</v>
       </c>
       <c r="I63" s="6" t="s">
@@ -5932,7 +5934,7 @@
       <c r="G64" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="6" t="s">
         <v>667</v>
       </c>
       <c r="I64" s="6" t="s">
@@ -5981,13 +5983,13 @@
       <c r="G65" t="s">
         <v>384</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H65" t="s">
         <v>668</v>
       </c>
       <c r="I65" t="s">
         <v>385</v>
       </c>
-      <c r="J65" s="33" t="s">
+      <c r="J65" t="s">
         <v>658</v>
       </c>
       <c r="K65" t="s">
@@ -6028,13 +6030,13 @@
       <c r="G66" t="s">
         <v>391</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H66" t="s">
         <v>673</v>
       </c>
       <c r="I66" t="s">
         <v>348</v>
       </c>
-      <c r="J66" s="33" t="s">
+      <c r="J66" t="s">
         <v>658</v>
       </c>
       <c r="K66" t="s">
@@ -6081,13 +6083,13 @@
       <c r="G67" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="33" t="s">
+      <c r="H67" t="s">
         <v>672</v>
       </c>
       <c r="I67" t="s">
         <v>396</v>
       </c>
-      <c r="J67" s="33" t="s">
+      <c r="J67" t="s">
         <v>658</v>
       </c>
       <c r="K67" t="s">
@@ -6128,13 +6130,13 @@
       <c r="G68" t="s">
         <v>128</v>
       </c>
-      <c r="H68" s="33" t="s">
+      <c r="H68" t="s">
         <v>679</v>
       </c>
       <c r="I68" t="s">
         <v>343</v>
       </c>
-      <c r="J68" s="33" t="s">
+      <c r="J68" t="s">
         <v>658</v>
       </c>
       <c r="K68" t="s">
@@ -6181,13 +6183,13 @@
       <c r="G69" t="s">
         <v>406</v>
       </c>
-      <c r="H69" s="33" t="s">
+      <c r="H69" t="s">
         <v>679</v>
       </c>
       <c r="I69" t="s">
         <v>407</v>
       </c>
-      <c r="J69" s="33" t="s">
+      <c r="J69" t="s">
         <v>659</v>
       </c>
       <c r="K69" t="s">
@@ -6234,13 +6236,13 @@
       <c r="G70" t="s">
         <v>412</v>
       </c>
-      <c r="H70" s="33" t="s">
+      <c r="H70" t="s">
         <v>672</v>
       </c>
       <c r="I70" t="s">
         <v>413</v>
       </c>
-      <c r="J70" s="33" t="s">
+      <c r="J70" t="s">
         <v>658</v>
       </c>
       <c r="K70" t="s">
@@ -6287,13 +6289,13 @@
       <c r="G71" t="s">
         <v>418</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H71" t="s">
         <v>679</v>
       </c>
       <c r="I71" t="s">
         <v>419</v>
       </c>
-      <c r="J71" s="33" t="s">
+      <c r="J71" t="s">
         <v>656</v>
       </c>
       <c r="K71" t="s">
@@ -6340,13 +6342,13 @@
       <c r="G72" t="s">
         <v>424</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" t="s">
         <v>668</v>
       </c>
       <c r="I72" t="s">
         <v>343</v>
       </c>
-      <c r="J72" s="33" t="s">
+      <c r="J72" t="s">
         <v>658</v>
       </c>
       <c r="K72" t="s">
@@ -6394,7 +6396,7 @@
       <c r="G73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H73" s="35" t="s">
+      <c r="H73" s="6" t="s">
         <v>667</v>
       </c>
       <c r="I73" s="6" t="s">
@@ -6443,13 +6445,13 @@
       <c r="G74" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="33" t="s">
+      <c r="H74" t="s">
         <v>671</v>
       </c>
       <c r="I74" t="s">
         <v>434</v>
       </c>
-      <c r="J74" s="33" t="s">
+      <c r="J74" t="s">
         <v>658</v>
       </c>
       <c r="K74" t="s">
@@ -6490,13 +6492,13 @@
       <c r="G75" t="s">
         <v>440</v>
       </c>
-      <c r="H75" s="33" t="s">
+      <c r="H75" t="s">
         <v>680</v>
       </c>
       <c r="I75" t="s">
         <v>441</v>
       </c>
-      <c r="J75" s="33" t="s">
+      <c r="J75" t="s">
         <v>658</v>
       </c>
       <c r="K75" t="s">
@@ -6543,13 +6545,13 @@
       <c r="G76" t="s">
         <v>163</v>
       </c>
-      <c r="H76" s="33" t="s">
+      <c r="H76" t="s">
         <v>673</v>
       </c>
       <c r="I76" t="s">
         <v>368</v>
       </c>
-      <c r="J76" s="33" t="s">
+      <c r="J76" t="s">
         <v>658</v>
       </c>
       <c r="K76" t="s">
@@ -6590,13 +6592,13 @@
       <c r="G77" t="s">
         <v>89</v>
       </c>
-      <c r="H77" s="33" t="s">
+      <c r="H77" t="s">
         <v>669</v>
       </c>
       <c r="I77" t="s">
         <v>368</v>
       </c>
-      <c r="J77" s="33" t="s">
+      <c r="J77" t="s">
         <v>658</v>
       </c>
       <c r="K77" t="s">
@@ -6644,7 +6646,7 @@
       <c r="G78" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H78" s="35" t="s">
+      <c r="H78" s="6" t="s">
         <v>672</v>
       </c>
       <c r="I78" s="6" t="s">
@@ -6698,7 +6700,7 @@
       <c r="G79" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H79" s="34" t="s">
+      <c r="H79" s="14" t="s">
         <v>673</v>
       </c>
       <c r="I79" s="14" t="s">
@@ -6747,13 +6749,13 @@
       <c r="G80" t="s">
         <v>28</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" t="s">
         <v>671</v>
       </c>
       <c r="I80" t="s">
         <v>348</v>
       </c>
-      <c r="J80" s="33" t="s">
+      <c r="J80" t="s">
         <v>658</v>
       </c>
       <c r="K80" t="s">
@@ -6801,7 +6803,7 @@
       <c r="G81" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="H81" s="34" t="s">
+      <c r="H81" s="14" t="s">
         <v>673</v>
       </c>
       <c r="I81" s="14" t="s">
@@ -6854,13 +6856,13 @@
       <c r="G82" t="s">
         <v>474</v>
       </c>
-      <c r="H82" s="33" t="s">
+      <c r="H82" t="s">
         <v>679</v>
       </c>
       <c r="I82" t="s">
         <v>475</v>
       </c>
-      <c r="J82" s="33" t="s">
+      <c r="J82" t="s">
         <v>659</v>
       </c>
       <c r="K82" t="s">
@@ -6907,7 +6909,7 @@
       <c r="G83" t="s">
         <v>391</v>
       </c>
-      <c r="H83" s="34" t="s">
+      <c r="H83" s="14" t="s">
         <v>673</v>
       </c>
       <c r="I83" t="s">
@@ -6960,13 +6962,13 @@
       <c r="G84" t="s">
         <v>156</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" t="s">
         <v>672</v>
       </c>
       <c r="I84" t="s">
         <v>482</v>
       </c>
-      <c r="J84" s="33" t="s">
+      <c r="J84" t="s">
         <v>658</v>
       </c>
       <c r="K84" t="s">
@@ -7009,7 +7011,7 @@
       <c r="G85" t="s">
         <v>484</v>
       </c>
-      <c r="H85" s="34" t="s">
+      <c r="H85" s="14" t="s">
         <v>668</v>
       </c>
       <c r="I85" t="s">
@@ -7054,7 +7056,7 @@
       <c r="G86" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="H86" s="35" t="s">
+      <c r="H86" s="6" t="s">
         <v>679</v>
       </c>
       <c r="I86" s="6" t="s">
@@ -7106,7 +7108,7 @@
       <c r="G87" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="H87" s="35" t="s">
+      <c r="H87" s="6" t="s">
         <v>675</v>
       </c>
       <c r="I87" s="6" t="s">
@@ -7156,7 +7158,7 @@
       <c r="G88" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="6" t="s">
         <v>685</v>
       </c>
       <c r="I88" s="6" t="s">
@@ -7207,13 +7209,13 @@
       <c r="G89" t="s">
         <v>509</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H89" t="s">
         <v>686</v>
       </c>
       <c r="I89" t="s">
         <v>510</v>
       </c>
-      <c r="J89" s="33" t="s">
+      <c r="J89" t="s">
         <v>658</v>
       </c>
       <c r="K89" t="s">
@@ -7257,13 +7259,13 @@
       <c r="G90" t="s">
         <v>515</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" t="s">
         <v>668</v>
       </c>
       <c r="I90" t="s">
         <v>516</v>
       </c>
-      <c r="J90" s="33" t="s">
+      <c r="J90" t="s">
         <v>659</v>
       </c>
       <c r="K90" t="s">
@@ -7313,7 +7315,7 @@
       <c r="I91" t="s">
         <v>522</v>
       </c>
-      <c r="J91" s="33" t="s">
+      <c r="J91" t="s">
         <v>656</v>
       </c>
       <c r="K91" t="s">
@@ -7358,13 +7360,13 @@
       <c r="G92" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="H92" s="34" t="s">
+      <c r="H92" s="14" t="s">
         <v>673</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="J92" s="34" t="s">
+      <c r="J92" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K92" s="14" t="s">
@@ -7407,13 +7409,13 @@
       <c r="G93" t="s">
         <v>533</v>
       </c>
-      <c r="H93" s="33" t="s">
+      <c r="H93" t="s">
         <v>672</v>
       </c>
       <c r="I93" t="s">
         <v>534</v>
       </c>
-      <c r="J93" s="33" t="s">
+      <c r="J93" t="s">
         <v>658</v>
       </c>
       <c r="K93" t="s">
@@ -7457,13 +7459,13 @@
       <c r="G94" t="s">
         <v>539</v>
       </c>
-      <c r="H94" s="33" t="s">
+      <c r="H94" t="s">
         <v>686</v>
       </c>
       <c r="I94" t="s">
         <v>540</v>
       </c>
-      <c r="J94" s="34" t="s">
+      <c r="J94" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K94" t="s">
@@ -7508,13 +7510,13 @@
       <c r="G95" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="H95" s="34" t="s">
+      <c r="H95" s="14" t="s">
         <v>681</v>
       </c>
       <c r="I95" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="J95" s="34" t="s">
+      <c r="J95" s="14" t="s">
         <v>656</v>
       </c>
       <c r="K95" s="14" t="s">
@@ -7557,13 +7559,13 @@
       <c r="G96" t="s">
         <v>474</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" t="s">
         <v>679</v>
       </c>
       <c r="I96" t="s">
         <v>550</v>
       </c>
-      <c r="J96" s="34" t="s">
+      <c r="J96" s="14" t="s">
         <v>656</v>
       </c>
       <c r="K96" t="s">
@@ -7607,13 +7609,13 @@
       <c r="G97" t="s">
         <v>664</v>
       </c>
-      <c r="H97" s="33" t="s">
+      <c r="H97" t="s">
         <v>679</v>
       </c>
       <c r="I97" t="s">
         <v>665</v>
       </c>
-      <c r="J97" s="34" t="s">
+      <c r="J97" s="14" t="s">
         <v>656</v>
       </c>
       <c r="K97" t="s">
@@ -7657,13 +7659,13 @@
       <c r="G98" t="s">
         <v>558</v>
       </c>
-      <c r="H98" s="33" t="s">
+      <c r="H98" t="s">
         <v>673</v>
       </c>
       <c r="I98" t="s">
         <v>559</v>
       </c>
-      <c r="J98" s="34" t="s">
+      <c r="J98" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K98" t="s">
@@ -7707,13 +7709,13 @@
       <c r="G99" t="s">
         <v>63</v>
       </c>
-      <c r="H99" s="33" t="s">
+      <c r="H99" t="s">
         <v>672</v>
       </c>
       <c r="I99" t="s">
         <v>564</v>
       </c>
-      <c r="J99" s="34" t="s">
+      <c r="J99" s="14" t="s">
         <v>656</v>
       </c>
       <c r="K99" t="s">
@@ -7758,13 +7760,13 @@
       <c r="G100" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="H100" s="34" t="s">
+      <c r="H100" s="14" t="s">
         <v>679</v>
       </c>
       <c r="I100" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="J100" s="34" t="s">
+      <c r="J100" s="14" t="s">
         <v>658</v>
       </c>
       <c r="K100" s="14" t="s">
@@ -7807,13 +7809,13 @@
       <c r="G101" t="s">
         <v>576</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" t="s">
         <v>673</v>
       </c>
       <c r="I101" t="s">
         <v>577</v>
       </c>
-      <c r="J101" s="33" t="s">
+      <c r="J101" t="s">
         <v>658</v>
       </c>
       <c r="K101" t="s">
@@ -7839,771 +7841,820 @@
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B102" s="32">
+      <c r="B102" s="31">
         <v>44866.619839340274</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="F102" t="s">
         <v>581</v>
       </c>
       <c r="G102" t="s">
         <v>63</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" t="s">
         <v>672</v>
       </c>
-      <c r="I102" s="33"/>
-      <c r="J102" s="34" t="s">
+      <c r="J102" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K102" s="31" t="s">
+      <c r="K102" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B103" s="32">
+      <c r="B103" s="31">
         <v>44825.522170416662</v>
       </c>
-      <c r="F103" s="31" t="s">
+      <c r="F103" t="s">
         <v>582</v>
       </c>
       <c r="G103" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H103" t="s">
         <v>672</v>
       </c>
-      <c r="J103" s="34" t="s">
+      <c r="J103" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K103" s="31" t="s">
+      <c r="K103" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B104" s="32">
+      <c r="B104" s="31">
         <v>44761.67759486111</v>
       </c>
-      <c r="F104" s="31" t="s">
+      <c r="F104" t="s">
         <v>583</v>
       </c>
       <c r="G104" t="s">
         <v>63</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" t="s">
         <v>672</v>
       </c>
-      <c r="J104" s="34" t="s">
+      <c r="J104" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K104" s="31" t="s">
+      <c r="K104" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B105" s="32">
+      <c r="B105" s="31">
         <v>44873.860130023153</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="F105" t="s">
         <v>584</v>
       </c>
       <c r="G105" t="s">
         <v>63</v>
       </c>
-      <c r="H105" s="33" t="s">
+      <c r="H105" t="s">
         <v>672</v>
       </c>
-      <c r="J105" s="34" t="s">
+      <c r="J105" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K105" s="31" t="s">
+      <c r="K105" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B106" s="32">
+      <c r="B106" s="31">
         <v>44854.780066770836</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" t="s">
         <v>585</v>
       </c>
       <c r="G106" t="s">
         <v>63</v>
       </c>
-      <c r="H106" s="33" t="s">
+      <c r="H106" t="s">
         <v>672</v>
       </c>
-      <c r="J106" s="34" t="s">
+      <c r="J106" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K106" s="31" t="s">
+      <c r="K106" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B107" s="32">
+      <c r="B107" s="31">
         <v>44824.873695173606</v>
       </c>
-      <c r="F107" s="31" t="s">
+      <c r="F107" t="s">
         <v>586</v>
       </c>
       <c r="G107" t="s">
         <v>63</v>
       </c>
-      <c r="H107" s="33" t="s">
+      <c r="H107" t="s">
         <v>672</v>
       </c>
-      <c r="J107" s="34" t="s">
+      <c r="J107" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K107" s="31" t="s">
+      <c r="K107" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B108" s="32">
+      <c r="B108" s="31">
         <v>44991.607540231482</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F108" t="s">
         <v>587</v>
       </c>
       <c r="G108" t="s">
         <v>63</v>
       </c>
-      <c r="H108" s="33" t="s">
+      <c r="H108" t="s">
         <v>672</v>
       </c>
-      <c r="J108" s="34" t="s">
+      <c r="J108" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K108" s="31" t="s">
+      <c r="K108" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B109" s="32">
+      <c r="B109" s="31">
         <v>44869.375819837966</v>
       </c>
-      <c r="F109" s="31" t="s">
+      <c r="F109" t="s">
         <v>588</v>
       </c>
       <c r="G109" t="s">
         <v>63</v>
       </c>
-      <c r="H109" s="33" t="s">
+      <c r="H109" t="s">
         <v>672</v>
       </c>
-      <c r="J109" s="34" t="s">
+      <c r="J109" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K109" s="31" t="s">
+      <c r="K109" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B110" s="32">
+      <c r="B110" s="31">
         <v>45092.437738622684</v>
       </c>
-      <c r="F110" s="31" t="s">
+      <c r="F110" t="s">
         <v>589</v>
       </c>
       <c r="G110" t="s">
         <v>63</v>
       </c>
-      <c r="H110" s="33" t="s">
+      <c r="H110" t="s">
         <v>672</v>
       </c>
-      <c r="J110" s="34" t="s">
+      <c r="J110" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K110" s="31" t="s">
+      <c r="K110" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B111" s="32">
+      <c r="B111" s="31">
         <v>44826.411653368057</v>
       </c>
-      <c r="F111" s="31" t="s">
+      <c r="F111" t="s">
         <v>590</v>
       </c>
       <c r="G111" t="s">
         <v>63</v>
       </c>
-      <c r="H111" s="33" t="s">
+      <c r="H111" t="s">
         <v>672</v>
       </c>
-      <c r="J111" s="34" t="s">
+      <c r="J111" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K111" s="31" t="s">
+      <c r="K111" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B112" s="32">
+      <c r="B112" s="31">
         <v>44805.462630000002</v>
       </c>
-      <c r="F112" s="31" t="s">
+      <c r="F112" t="s">
         <v>591</v>
       </c>
       <c r="G112" t="s">
         <v>63</v>
       </c>
-      <c r="H112" s="33" t="s">
+      <c r="H112" t="s">
         <v>672</v>
       </c>
-      <c r="J112" s="34" t="s">
+      <c r="J112" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K112" s="31" t="s">
+      <c r="K112" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B113" s="32">
+      <c r="B113" s="31">
         <v>44819.705333229169</v>
       </c>
-      <c r="F113" s="31" t="s">
+      <c r="F113" t="s">
         <v>592</v>
       </c>
       <c r="G113" t="s">
         <v>63</v>
       </c>
-      <c r="H113" s="33" t="s">
+      <c r="H113" t="s">
         <v>672</v>
       </c>
-      <c r="J113" s="34" t="s">
+      <c r="J113" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K113" s="31" t="s">
+      <c r="K113" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B114" s="32">
+      <c r="B114" s="31">
         <v>44872.487009027776</v>
       </c>
-      <c r="F114" s="31" t="s">
+      <c r="F114" t="s">
         <v>593</v>
       </c>
       <c r="G114" t="s">
         <v>63</v>
       </c>
-      <c r="H114" s="33" t="s">
+      <c r="H114" t="s">
         <v>672</v>
       </c>
-      <c r="J114" s="34" t="s">
+      <c r="J114" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K114" s="31" t="s">
+      <c r="K114" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B115" s="32">
+      <c r="B115" s="31">
         <v>44859.580876249995</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="F115" t="s">
         <v>594</v>
       </c>
       <c r="G115" t="s">
         <v>63</v>
       </c>
-      <c r="H115" s="33" t="s">
+      <c r="H115" t="s">
         <v>672</v>
       </c>
-      <c r="J115" s="34" t="s">
+      <c r="J115" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K115" s="31" t="s">
+      <c r="K115" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B116" s="32">
+      <c r="B116" s="31">
         <v>44729.790755879629</v>
       </c>
-      <c r="F116" s="31" t="s">
+      <c r="F116" t="s">
         <v>595</v>
       </c>
       <c r="G116" t="s">
         <v>63</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="H116" t="s">
         <v>672</v>
       </c>
-      <c r="J116" s="34" t="s">
+      <c r="J116" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K116" s="31" t="s">
+      <c r="K116" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B117" s="32">
+      <c r="B117" s="31">
         <v>44859.606948078705</v>
       </c>
-      <c r="F117" s="31" t="s">
+      <c r="F117" t="s">
         <v>417</v>
       </c>
       <c r="G117" t="s">
         <v>63</v>
       </c>
-      <c r="H117" s="33" t="s">
+      <c r="H117" t="s">
         <v>672</v>
       </c>
-      <c r="J117" s="34" t="s">
+      <c r="J117" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K117" s="31" t="s">
+      <c r="K117" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B118" s="32">
+      <c r="B118" s="31">
         <v>44991.648802060183</v>
       </c>
-      <c r="F118" s="31" t="s">
+      <c r="F118" t="s">
         <v>596</v>
       </c>
       <c r="G118" t="s">
         <v>63</v>
       </c>
-      <c r="H118" s="33" t="s">
+      <c r="H118" t="s">
         <v>672</v>
       </c>
-      <c r="J118" s="34" t="s">
+      <c r="J118" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K118" s="31" t="s">
+      <c r="K118" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B119" s="32">
+      <c r="B119" s="31">
         <v>44859.512387152776</v>
       </c>
-      <c r="F119" s="31" t="s">
+      <c r="F119" t="s">
         <v>597</v>
       </c>
       <c r="G119" t="s">
         <v>63</v>
       </c>
-      <c r="H119" s="33" t="s">
+      <c r="H119" t="s">
         <v>672</v>
       </c>
-      <c r="J119" s="34" t="s">
+      <c r="J119" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K119" s="31" t="s">
+      <c r="K119" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B120" s="32">
+      <c r="B120" s="31">
         <v>44833.579996446759</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F120" t="s">
         <v>598</v>
       </c>
       <c r="G120" t="s">
         <v>63</v>
       </c>
-      <c r="H120" s="33" t="s">
+      <c r="H120" t="s">
         <v>672</v>
       </c>
-      <c r="J120" s="34" t="s">
+      <c r="J120" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K120" s="31" t="s">
+      <c r="K120" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B121" s="32">
+      <c r="B121" s="31">
         <v>44874.764385879629</v>
       </c>
-      <c r="F121" s="31" t="s">
+      <c r="F121" t="s">
         <v>599</v>
       </c>
       <c r="G121" t="s">
         <v>63</v>
       </c>
-      <c r="H121" s="33" t="s">
+      <c r="H121" t="s">
         <v>672</v>
       </c>
-      <c r="J121" s="34" t="s">
+      <c r="J121" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K121" s="31" t="s">
+      <c r="K121" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B122" s="32">
+      <c r="B122" s="31">
         <v>44869.641298541668</v>
       </c>
-      <c r="F122" s="31" t="s">
+      <c r="F122" t="s">
         <v>600</v>
       </c>
       <c r="G122" t="s">
         <v>63</v>
       </c>
-      <c r="H122" s="33" t="s">
+      <c r="H122" t="s">
         <v>672</v>
       </c>
-      <c r="J122" s="34" t="s">
+      <c r="J122" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K122" s="31" t="s">
+      <c r="K122" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B123" s="32">
+      <c r="B123" s="31">
         <v>44739.720824722222</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F123" t="s">
         <v>601</v>
       </c>
       <c r="G123" t="s">
         <v>63</v>
       </c>
-      <c r="H123" s="33" t="s">
+      <c r="H123" t="s">
         <v>672</v>
       </c>
-      <c r="J123" s="34" t="s">
+      <c r="J123" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K123" s="31" t="s">
+      <c r="K123" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B124" s="32">
+      <c r="B124" s="31">
         <v>45093.575663344905</v>
       </c>
-      <c r="F124" s="31" t="s">
+      <c r="F124" t="s">
         <v>602</v>
       </c>
       <c r="G124" t="s">
         <v>63</v>
       </c>
-      <c r="H124" s="33" t="s">
+      <c r="H124" t="s">
         <v>672</v>
       </c>
-      <c r="J124" s="34" t="s">
+      <c r="J124" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K124" s="31" t="s">
+      <c r="K124" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B125" s="32">
+      <c r="B125" s="31">
         <v>44991.277810150466</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="F125" t="s">
         <v>603</v>
       </c>
       <c r="G125" t="s">
         <v>63</v>
       </c>
-      <c r="H125" s="33" t="s">
+      <c r="H125" t="s">
         <v>672</v>
       </c>
-      <c r="J125" s="34" t="s">
+      <c r="J125" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K125" s="31" t="s">
+      <c r="K125" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B126" s="32">
+      <c r="B126" s="31">
         <v>44890.453736458338</v>
       </c>
-      <c r="F126" s="31" t="s">
+      <c r="F126" t="s">
         <v>604</v>
       </c>
       <c r="G126" t="s">
         <v>63</v>
       </c>
-      <c r="H126" s="33" t="s">
+      <c r="H126" t="s">
         <v>672</v>
       </c>
-      <c r="J126" s="34" t="s">
+      <c r="J126" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K126" s="31" t="s">
+      <c r="K126" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B127" s="32">
+      <c r="B127" s="31">
         <v>45092.505118854169</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="F127" t="s">
         <v>605</v>
       </c>
       <c r="G127" t="s">
         <v>63</v>
       </c>
-      <c r="H127" s="33" t="s">
+      <c r="H127" t="s">
         <v>672</v>
       </c>
-      <c r="J127" s="34" t="s">
+      <c r="J127" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K127" s="31" t="s">
+      <c r="K127" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B128" s="32">
+      <c r="B128" s="31">
         <v>44935.666276944445</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F128" t="s">
         <v>606</v>
       </c>
       <c r="G128" t="s">
         <v>63</v>
       </c>
-      <c r="H128" s="33" t="s">
+      <c r="H128" t="s">
         <v>672</v>
       </c>
-      <c r="J128" s="34" t="s">
+      <c r="J128" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K128" s="31" t="s">
+      <c r="K128" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B129" s="32">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B129" s="31">
         <v>44936.591479456023</v>
       </c>
-      <c r="F129" s="31" t="s">
+      <c r="F129" t="s">
         <v>607</v>
       </c>
       <c r="G129" t="s">
         <v>63</v>
       </c>
-      <c r="H129" s="33" t="s">
+      <c r="H129" t="s">
         <v>672</v>
       </c>
-      <c r="J129" s="34" t="s">
+      <c r="J129" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K129" s="31" t="s">
+      <c r="K129" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B130" s="32">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B130" s="31">
         <v>44725.638666377316</v>
       </c>
-      <c r="F130" s="31" t="s">
+      <c r="F130" t="s">
         <v>608</v>
       </c>
       <c r="G130" t="s">
         <v>63</v>
       </c>
-      <c r="H130" s="33" t="s">
+      <c r="H130" t="s">
         <v>672</v>
       </c>
-      <c r="J130" s="34" t="s">
+      <c r="J130" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K130" s="31" t="s">
+      <c r="K130" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B131" s="32">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B131" s="31">
         <v>45014.393506400462</v>
       </c>
-      <c r="F131" s="31" t="s">
+      <c r="F131" t="s">
         <v>609</v>
       </c>
       <c r="G131" t="s">
         <v>63</v>
       </c>
-      <c r="H131" s="33" t="s">
+      <c r="H131" t="s">
         <v>672</v>
       </c>
-      <c r="J131" s="34" t="s">
+      <c r="J131" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K131" s="31" t="s">
+      <c r="K131" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B132" s="32">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B132" s="31">
         <v>45051.398801134259</v>
       </c>
-      <c r="F132" s="31" t="s">
+      <c r="F132" t="s">
         <v>610</v>
       </c>
       <c r="G132" t="s">
         <v>63</v>
       </c>
-      <c r="H132" s="33" t="s">
+      <c r="H132" t="s">
         <v>672</v>
       </c>
-      <c r="J132" s="34" t="s">
+      <c r="J132" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K132" s="31" t="s">
+      <c r="K132" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B133" s="32">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B133" s="31">
         <v>44876.551159583338</v>
       </c>
-      <c r="F133" s="31" t="s">
+      <c r="F133" t="s">
         <v>611</v>
       </c>
       <c r="G133" t="s">
         <v>63</v>
       </c>
-      <c r="H133" s="33" t="s">
+      <c r="H133" t="s">
         <v>672</v>
       </c>
-      <c r="J133" s="34" t="s">
+      <c r="J133" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K133" s="31" t="s">
+      <c r="K133" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B134" s="32">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B134" s="31">
         <v>44778.206859710648</v>
       </c>
-      <c r="F134" s="31" t="s">
+      <c r="F134" t="s">
         <v>612</v>
       </c>
       <c r="G134" t="s">
         <v>63</v>
       </c>
-      <c r="H134" s="33" t="s">
+      <c r="H134" t="s">
         <v>672</v>
       </c>
-      <c r="J134" s="34" t="s">
+      <c r="J134" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K134" s="31" t="s">
+      <c r="K134" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B135" s="32">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B135" s="31">
         <v>45097.545725856486</v>
       </c>
-      <c r="F135" s="31" t="s">
+      <c r="F135" t="s">
         <v>613</v>
       </c>
       <c r="G135" t="s">
         <v>63</v>
       </c>
-      <c r="H135" s="33" t="s">
+      <c r="H135" t="s">
         <v>672</v>
       </c>
-      <c r="J135" s="34" t="s">
+      <c r="J135" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K135" s="31" t="s">
+      <c r="K135" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B136" s="32">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B136" s="31">
         <v>44805.43154982639</v>
       </c>
-      <c r="F136" s="31" t="s">
+      <c r="F136" t="s">
         <v>614</v>
       </c>
       <c r="G136" t="s">
         <v>63</v>
       </c>
-      <c r="H136" s="33" t="s">
+      <c r="H136" t="s">
         <v>672</v>
       </c>
-      <c r="J136" s="34" t="s">
+      <c r="J136" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K136" s="31" t="s">
+      <c r="K136" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B137" s="32">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B137" s="31">
         <v>45062.653558090278</v>
       </c>
-      <c r="F137" s="31" t="s">
+      <c r="F137" t="s">
         <v>615</v>
       </c>
       <c r="G137" t="s">
         <v>63</v>
       </c>
-      <c r="H137" s="33" t="s">
+      <c r="H137" t="s">
         <v>672</v>
       </c>
-      <c r="J137" s="34" t="s">
+      <c r="J137" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K137" s="31" t="s">
+      <c r="K137" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B138" s="32">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B138" s="31">
         <v>44991.653256747682</v>
       </c>
-      <c r="F138" s="31" t="s">
+      <c r="F138" t="s">
         <v>616</v>
       </c>
       <c r="G138" t="s">
         <v>63</v>
       </c>
-      <c r="H138" s="33" t="s">
+      <c r="H138" t="s">
         <v>672</v>
       </c>
-      <c r="J138" s="34" t="s">
+      <c r="J138" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K138" s="31" t="s">
+      <c r="K138" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B139" s="32">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B139" s="31">
         <v>44991.607517384255</v>
       </c>
-      <c r="F139" s="31" t="s">
+      <c r="F139" t="s">
         <v>617</v>
       </c>
       <c r="G139" t="s">
         <v>63</v>
       </c>
-      <c r="H139" s="33" t="s">
+      <c r="H139" t="s">
         <v>672</v>
       </c>
-      <c r="J139" s="34" t="s">
+      <c r="J139" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="K139" s="31" t="s">
+      <c r="K139" t="s">
         <v>654</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A140" s="14">
+        <v>17</v>
+      </c>
+      <c r="B140" s="15">
+        <v>45077.4527199074</v>
+      </c>
+      <c r="C140" s="15">
+        <v>45077.479837963001</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="K140" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M140" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="N140" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="O140" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N101" r:id="rId1"/>
-    <hyperlink ref="O84" r:id="rId2"/>
-    <hyperlink ref="N53" r:id="rId3" display="https://www.linkedin.com/in/emma-perfect-896a5414/"/>
+    <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N53" r:id="rId3" display="https://www.linkedin.com/in/emma-perfect-896a5414/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD385A28-A769-428D-A2F0-8B7DD711B7E0}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E11C13-17D9-4107-84D1-F059A04905DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,12 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Maximus Hughes-Gray</t>
-  </si>
-  <si>
-    <t>Fake</t>
   </si>
 </sst>
 </file>
@@ -2311,6 +2305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2612,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F112" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8601,54 +8599,24 @@
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A140" s="14">
-        <v>17</v>
-      </c>
-      <c r="B140" s="15">
-        <v>45077.4527199074</v>
-      </c>
-      <c r="C140" s="15">
-        <v>45077.479837963001</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="14"/>
       <c r="E140" s="14"/>
-      <c r="F140" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="H140" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="I140" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="K140" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="L140" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M140" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="N140" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="O140" s="14" t="s">
-        <v>574</v>
-      </c>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
       <c r="P140" s="14"/>
       <c r="Q140" s="14"/>
-      <c r="R140" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="R140" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E11C13-17D9-4107-84D1-F059A04905DB}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A48F291-DBFB-44E8-9C0D-EB628B5241BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2608,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8378,7 +8378,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B129" s="31">
         <v>44936.591479456023</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B130" s="31">
         <v>44725.638666377316</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B131" s="31">
         <v>45014.393506400462</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B132" s="31">
         <v>45051.398801134259</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B133" s="31">
         <v>44876.551159583338</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B134" s="31">
         <v>44778.206859710648</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B135" s="31">
         <v>45097.545725856486</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B136" s="31">
         <v>44805.43154982639</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B137" s="31">
         <v>45062.653558090278</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B138" s="31">
         <v>44991.653256747682</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B139" s="31">
         <v>44991.607517384255</v>
       </c>
@@ -8597,26 +8597,6 @@
       <c r="K139" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
-      <c r="L140" s="14"/>
-      <c r="M140" s="14"/>
-      <c r="N140" s="14"/>
-      <c r="O140" s="14"/>
-      <c r="P140" s="14"/>
-      <c r="Q140" s="14"/>
-      <c r="R140" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A48F291-DBFB-44E8-9C0D-EB628B5241BB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D819C2C-8EDA-4259-9C3E-DFEA1E2F9559}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="689">
   <si>
     <t>ID</t>
   </si>
@@ -2128,6 +2128,12 @@
   </si>
   <si>
     <t>Manchester</t>
+  </si>
+  <si>
+    <t>Slenderman</t>
+  </si>
+  <si>
+    <t>University of Horror</t>
   </si>
 </sst>
 </file>
@@ -2305,10 +2311,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8598,6 +8600,26 @@
         <v>654</v>
       </c>
     </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="31">
+        <v>44991.607517384255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>688</v>
+      </c>
+      <c r="H140" t="s">
+        <v>672</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="K140" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D819C2C-8EDA-4259-9C3E-DFEA1E2F9559}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A5D3ABE-2E8F-4D57-A592-3A720F50C8A1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,12 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Slenderman</t>
-  </si>
-  <si>
-    <t>University of Horror</t>
   </si>
 </sst>
 </file>
@@ -2311,6 +2305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2613,7 +2611,7 @@
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8601,24 +8599,8 @@
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.607517384255</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>688</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>654</v>
-      </c>
+      <c r="B140" s="31"/>
+      <c r="J140" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A5D3ABE-2E8F-4D57-A592-3A720F50C8A1}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D89037-0615-42B2-9DE5-B2200A19051C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t>Manchester</t>
+  </si>
+  <si>
+    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2305,10 +2308,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2611,7 +2610,7 @@
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8599,8 +8598,24 @@
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31"/>
-      <c r="J140" s="14"/>
+      <c r="B140" s="31">
+        <v>44991.607517384255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" t="s">
+        <v>672</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="K140" t="s">
+        <v>654</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D89037-0615-42B2-9DE5-B2200A19051C}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD58C1E-D44D-44C1-B5D7-0CD2D8A20467}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,9 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2308,6 +2305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2610,7 +2611,7 @@
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8598,24 +8599,8 @@
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.607517384255</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>63</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>654</v>
-      </c>
+      <c r="B140" s="31"/>
+      <c r="J140" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D89037-0615-42B2-9DE5-B2200A19051C}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6080A0-7381-4333-B1DF-43B13117031E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2130,7 +2130,7 @@
     <t>Manchester</t>
   </si>
   <si>
-    <t>Maximus Hughes-Gray</t>
+    <t>Test Data2</t>
   </si>
 </sst>
 </file>
@@ -2308,6 +2308,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,7 +2611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="F140" sqref="F140"/>
@@ -8617,6 +8621,10 @@
         <v>654</v>
       </c>
     </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B141" s="31"/>
+      <c r="J141" s="14"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6080A0-7381-4333-B1DF-43B13117031E}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E2A318-0FBA-47A3-A325-6BFC36111182}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -2130,7 +2130,7 @@
     <t>Manchester</t>
   </si>
   <si>
-    <t>Test Data2</t>
+    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="F140" sqref="F140"/>
@@ -8614,16 +8614,6 @@
       <c r="H140" t="s">
         <v>672</v>
       </c>
-      <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B141" s="31"/>
-      <c r="J141" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76E2A318-0FBA-47A3-A325-6BFC36111182}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A27F528-6406-4D62-91D8-305DFE8AFA03}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,9 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2611,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8601,20 +8598,6 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.607517384255</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>63</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A27F528-6406-4D62-91D8-305DFE8AFA03}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0033FA93-13F7-4B2B-B0F8-9DE42E0BB403}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t>Manchester</t>
+  </si>
+  <si>
+    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2305,10 +2308,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8598,6 +8597,26 @@
         <v>654</v>
       </c>
     </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="31">
+        <v>44991.653256747682</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" t="s">
+        <v>672</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="K140" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0033FA93-13F7-4B2B-B0F8-9DE42E0BB403}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D6445E-EADD-4A24-BC66-7F436EED0A94}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10560" yWindow="-14925" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,9 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2308,6 +2305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8597,26 +8598,6 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.653256747682</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>63</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>653</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D6445E-EADD-4A24-BC66-7F436EED0A94}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12BF8003-1B0E-4B90-BEE3-A1DD4CA7DC23}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10560" yWindow="-14925" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t>Manchester</t>
+  </si>
+  <si>
+    <t>Thanos</t>
   </si>
 </sst>
 </file>
@@ -2608,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8598,6 +8601,26 @@
         <v>654</v>
       </c>
     </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="31">
+        <v>44991.607517384255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" t="s">
+        <v>672</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="K140" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12BF8003-1B0E-4B90-BEE3-A1DD4CA7DC23}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50DBC6E3-83C2-442C-9001-6F961A42B159}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,9 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Thanos</t>
   </si>
 </sst>
 </file>
@@ -2611,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8601,26 +8598,6 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.607517384255</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>63</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>654</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50DBC6E3-83C2-442C-9001-6F961A42B159}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFC41ED7-6431-4DEA-8890-760FE743D4FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t>Manchester</t>
+  </si>
+  <si>
+    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2305,10 +2308,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8598,6 +8597,26 @@
         <v>654</v>
       </c>
     </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="31">
+        <v>44991.607517384255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" t="s">
+        <v>672</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="K140" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFC41ED7-6431-4DEA-8890-760FE743D4FE}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925BD56B-CA79-4AA4-B101-6B1A308A3674}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,9 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2308,6 +2305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8597,26 +8598,6 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.607517384255</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>63</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>654</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925BD56B-CA79-4AA4-B101-6B1A308A3674}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F579AD94-65A5-498F-A11E-1E6D97726F4D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t>Manchester</t>
+  </si>
+  <si>
+    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2305,10 +2308,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8598,6 +8597,26 @@
         <v>654</v>
       </c>
     </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="31">
+        <v>44991.607517384255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" t="s">
+        <v>672</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="K140" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F579AD94-65A5-498F-A11E-1E6D97726F4D}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF92C96B-84C5-446D-BD4C-0F72A6C94719}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,9 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2308,6 +2305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2607,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8597,26 +8598,6 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.607517384255</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>63</v>
-      </c>
-      <c r="H140" t="s">
-        <v>672</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>654</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{5865E62E-5C8A-44C3-B1E8-685C63108DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF92C96B-84C5-446D-BD4C-0F72A6C94719}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D29FEBA2-4772-4FC9-906B-2C41AEC98E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
   <si>
     <t>ID</t>
   </si>
@@ -2128,6 +2128,9 @@
   </si>
   <si>
     <t>Manchester</t>
+  </si>
+  <si>
+    <t>Maximus Hughes-Gray</t>
   </si>
 </sst>
 </file>
@@ -2608,10 +2611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R139"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8598,6 +8602,26 @@
         <v>654</v>
       </c>
     </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="31">
+        <v>44991.607517384255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>687</v>
+      </c>
+      <c r="G140" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" t="s">
+        <v>672</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="K140" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D29FEBA2-4772-4FC9-906B-2C41AEC98E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{D29FEBA2-4772-4FC9-906B-2C41AEC98E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8180702-9B63-456B-833B-8B1BE33CC247}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="689">
   <si>
     <t>ID</t>
   </si>
@@ -2131,6 +2131,9 @@
   </si>
   <si>
     <t>Maximus Hughes-Gray</t>
+  </si>
+  <si>
+    <t>max.hughes-gray@carematch.ltd</t>
   </si>
 </sst>
 </file>
@@ -2308,10 +2311,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2614,8 +2613,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="I130" workbookViewId="0">
+      <selection activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8613,13 +8612,13 @@
         <v>63</v>
       </c>
       <c r="H140" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="K140" t="s">
-        <v>654</v>
+        <v>658</v>
+      </c>
+      <c r="K140" s="28" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -8627,8 +8626,9 @@
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="O84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="N53" r:id="rId3" display="https://www.linkedin.com/in/emma-perfect-896a5414/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K140" r:id="rId4" xr:uid="{255311A4-CB7F-4968-AF23-C48863ABA57D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="14_{D29FEBA2-4772-4FC9-906B-2C41AEC98E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8180702-9B63-456B-833B-8B1BE33CC247}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{D29FEBA2-4772-4FC9-906B-2C41AEC98E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7623711B-E7D3-48CB-AA4A-8FA6FC56A4E7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="687">
   <si>
     <t>ID</t>
   </si>
@@ -2128,12 +2128,6 @@
   </si>
   <si>
     <t>Manchester</t>
-  </si>
-  <si>
-    <t>Maximus Hughes-Gray</t>
-  </si>
-  <si>
-    <t>max.hughes-gray@carematch.ltd</t>
   </si>
 </sst>
 </file>
@@ -2311,6 +2305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2613,8 +2611,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I130" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8602,33 +8600,17 @@
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31">
-        <v>44991.607517384255</v>
-      </c>
-      <c r="F140" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" t="s">
-        <v>63</v>
-      </c>
-      <c r="H140" t="s">
-        <v>673</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>658</v>
-      </c>
-      <c r="K140" s="28" t="s">
-        <v>688</v>
-      </c>
+      <c r="B140" s="31"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="O84" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="N53" r:id="rId3" display="https://www.linkedin.com/in/emma-perfect-896a5414/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K140" r:id="rId4" xr:uid="{255311A4-CB7F-4968-AF23-C48863ABA57D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/NetworkVisualisationData/EMERGENCECollatedData.xlsx
+++ b/NetworkVisualisationData/EMERGENCECollatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d052a0d9fa7cbf49/Documents/psymh9-EMERGENCE-visualisation/NetworkVisualisationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{D29FEBA2-4772-4FC9-906B-2C41AEC98E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7623711B-E7D3-48CB-AA4A-8FA6FC56A4E7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{D29FEBA2-4772-4FC9-906B-2C41AEC98E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EDE663C-5C51-4C86-961C-35869DBDD83A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2305,10 +2305,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2609,10 +2605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8599,11 +8595,6 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="31"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="28"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N101" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
